--- a/coling2016/props/Dataset-stats-COLING-2016.xlsx
+++ b/coling2016/props/Dataset-stats-COLING-2016.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="17900" tabRatio="630" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="27700" windowHeight="15840" tabRatio="630"/>
   </bookViews>
   <sheets>
-    <sheet name="SliceDatasetStats" sheetId="14" r:id="rId1"/>
-    <sheet name="AmazonJulianDatasetStats" sheetId="17" r:id="rId2"/>
-    <sheet name="EbatesDatasetStats" sheetId="18" r:id="rId3"/>
-    <sheet name="AllDatasets" sheetId="19" r:id="rId4"/>
+    <sheet name="SliceDatasetStats" sheetId="15" r:id="rId1"/>
+    <sheet name="AmazonJDatasetStats" sheetId="17" r:id="rId2"/>
+    <sheet name="EbatesDatasetStats" sheetId="16" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
+  <si>
+    <t>Baby Products</t>
+  </si>
+  <si>
+    <t>Men's Clothing</t>
+  </si>
+  <si>
+    <t>Women's Clothing</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Slice data</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>KL (Emp | Unif)</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Instances</t>
+  </si>
+  <si>
+    <t>apparel &amp; accessories</t>
+  </si>
   <si>
     <t>appliances</t>
   </si>
@@ -30,174 +78,279 @@
     <t>automotive</t>
   </si>
   <si>
+    <t>baby products</t>
+  </si>
+  <si>
+    <t>electronics &amp; accessories</t>
+  </si>
+  <si>
+    <t>grocery &amp; gourmet food</t>
+  </si>
+  <si>
+    <t>health &amp; beauty</t>
+  </si>
+  <si>
+    <t>home &amp; kitchen</t>
+  </si>
+  <si>
+    <t>jewelry &amp; watches</t>
+  </si>
+  <si>
+    <t>office products</t>
+  </si>
+  <si>
+    <t>pet supplies</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>sports &amp; outdoors</t>
+  </si>
+  <si>
+    <t>tickets &amp; events</t>
+  </si>
+  <si>
+    <t>tools &amp; home improvement</t>
+  </si>
+  <si>
+    <t>toys &amp; games</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>* books</t>
+  </si>
+  <si>
+    <t>* deals &amp; offers</t>
+  </si>
+  <si>
+    <t>* flowers &amp; gifts</t>
+  </si>
+  <si>
+    <t>* gift cards</t>
+  </si>
+  <si>
+    <t>* magazines</t>
+  </si>
+  <si>
+    <t>* movies &amp; tv</t>
+  </si>
+  <si>
+    <t>* music</t>
+  </si>
+  <si>
+    <t>* online services</t>
+  </si>
+  <si>
+    <t>* other</t>
+  </si>
+  <si>
+    <t>* payments</t>
+  </si>
+  <si>
+    <t>* photos &amp; paper products</t>
+  </si>
+  <si>
+    <t>* software &amp; mobile apps</t>
+  </si>
+  <si>
+    <t>Ebates data</t>
+  </si>
+  <si>
+    <t>KL(Emp|Unif)</t>
+  </si>
+  <si>
+    <t>Home Furniture &amp; Patio</t>
+  </si>
+  <si>
+    <t>Jewelry &amp; Watches</t>
+  </si>
+  <si>
+    <t>Bag Handbags &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Health Beauty &amp; Fragrance</t>
+  </si>
+  <si>
+    <t>Electronics &amp; Computers</t>
+  </si>
+  <si>
+    <t>Sports &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Baby &amp; Kids Clothes</t>
+  </si>
+  <si>
+    <t>Toys 20000</t>
+  </si>
+  <si>
+    <t>Home Furniture &amp; Patio 30000</t>
+  </si>
+  <si>
+    <t>Jewelry &amp; Watches 40000</t>
+  </si>
+  <si>
+    <t>Bag Handbags &amp; Accessories 70000</t>
+  </si>
+  <si>
+    <t>Health Beauty &amp; Fragrance 80000</t>
+  </si>
+  <si>
+    <t>Shoes 90000</t>
+  </si>
+  <si>
+    <t>Electronics &amp; Computers 100000</t>
+  </si>
+  <si>
+    <t>Office 110000</t>
+  </si>
+  <si>
+    <t>Sports &amp; Fitness 120000</t>
+  </si>
+  <si>
+    <t>Automotive 130000</t>
+  </si>
+  <si>
+    <t>Industrial 140000</t>
+  </si>
+  <si>
+    <t>Baby Products 180000</t>
+  </si>
+  <si>
+    <t>Food 190000</t>
+  </si>
+  <si>
+    <t>* Food</t>
+  </si>
+  <si>
+    <t>Baby &amp; Kids Clothes 210000&gt;Clothing 200000</t>
+  </si>
+  <si>
+    <t>Men's Clothing 250000&gt;Clothing 200000</t>
+  </si>
+  <si>
+    <t>Women's Clothing 260000&gt;Clothing 200000</t>
+  </si>
+  <si>
+    <t>Other 270000&gt;Clothing 200000</t>
+  </si>
+  <si>
+    <t>* Other Clothing</t>
+  </si>
+  <si>
+    <t>KL Divergence from Uniform</t>
+  </si>
+  <si>
+    <t>arts, crafts &amp; sewing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
     <t>books</t>
   </si>
   <si>
-    <t>shoes</t>
-  </si>
-  <si>
-    <t>apparel &amp; accessories</t>
-  </si>
-  <si>
-    <t>baby products</t>
-  </si>
-  <si>
-    <t>electronics &amp; accessories</t>
-  </si>
-  <si>
-    <t>grocery &amp; gourmet food</t>
-  </si>
-  <si>
-    <t>health &amp; beauty</t>
-  </si>
-  <si>
-    <t>home &amp; kitchen</t>
-  </si>
-  <si>
-    <t>jewelry &amp; watches</t>
+    <t>cds &amp; vinyl</t>
+  </si>
+  <si>
+    <t>cell phones &amp; accessories</t>
+  </si>
+  <si>
+    <t>clothing, shoes &amp; jewelry</t>
+  </si>
+  <si>
+    <t>collectibles &amp; fine art</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>health &amp; personal care</t>
+  </si>
+  <si>
+    <t>industrial &amp; scientific</t>
   </si>
   <si>
     <t>movies &amp; tv</t>
   </si>
   <si>
-    <t>office products</t>
-  </si>
-  <si>
-    <t>pet supplies</t>
-  </si>
-  <si>
-    <t>sports &amp; outdoors</t>
-  </si>
-  <si>
-    <t>tickets &amp; events</t>
-  </si>
-  <si>
-    <t>tools &amp; home improvement</t>
-  </si>
-  <si>
-    <t>toys &amp; games</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>musical &amp; instruments</t>
+  </si>
+  <si>
+    <t>patio, lawn &amp; garden</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>video games</t>
+  </si>
+  <si>
+    <t>Home &amp; Furniture</t>
+  </si>
+  <si>
+    <t>Bag &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Health &amp; Beauty</t>
+  </si>
+  <si>
+    <t>Electronics &amp; Comp.</t>
+  </si>
+  <si>
+    <t>grocery &amp; food</t>
+  </si>
+  <si>
+    <t>home improvement</t>
+  </si>
+  <si>
+    <t>electronics &amp; acc.</t>
+  </si>
+  <si>
+    <t>apparel &amp; acc.</t>
   </si>
   <si>
     <t>Divergence</t>
   </si>
   <si>
-    <t>Branches</t>
-  </si>
-  <si>
-    <t>Instances</t>
-  </si>
-  <si>
-    <t>KL Divergence from Uniform</t>
-  </si>
-  <si>
-    <t>arts, crafts &amp; sewing</t>
-  </si>
-  <si>
     <t>** automotive</t>
   </si>
   <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>cds &amp; vinyl</t>
-  </si>
-  <si>
-    <t>cell phones &amp; accessories</t>
-  </si>
-  <si>
     <t>** clothing, shoes &amp; jewelry</t>
   </si>
   <si>
-    <t>collectibles &amp; fine art</t>
-  </si>
-  <si>
-    <t>electronics</t>
-  </si>
-  <si>
-    <t>health &amp; personal care</t>
-  </si>
-  <si>
     <t>* home &amp; kitchen</t>
   </si>
   <si>
     <t>* industrial &amp; scientific</t>
   </si>
   <si>
-    <t>musical &amp; instruments</t>
-  </si>
-  <si>
-    <t>patio, lawn &amp; garden</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
     <t>** sports &amp; outdoors</t>
   </si>
   <si>
     <t>* tools &amp; home improvement</t>
   </si>
   <si>
-    <t>video games</t>
-  </si>
-  <si>
-    <t>Pearson</t>
-  </si>
-  <si>
-    <t>Toys</t>
-  </si>
-  <si>
-    <t>Home Furniture &amp; Patio</t>
-  </si>
-  <si>
-    <t>Jewelry &amp; Watches</t>
-  </si>
-  <si>
-    <t>Bag Handbags &amp; Accessories</t>
-  </si>
-  <si>
-    <t>Health Beauty &amp; Fragrance</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>Electronics &amp; Computers</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>Sports &amp; Fitness</t>
-  </si>
-  <si>
-    <t>Automotive</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t>Baby Products</t>
-  </si>
-  <si>
-    <t>Baby &amp; Kids Clothes</t>
-  </si>
-  <si>
-    <t>Men's Clothing</t>
-  </si>
-  <si>
-    <t>Women's Clothing</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
+    <t>Correlation coeff of branches to instances</t>
+  </si>
+  <si>
     <t>Business Unit 1</t>
   </si>
   <si>
@@ -205,9 +358,6 @@
   </si>
   <si>
     <t>Business Unit 2</t>
-  </si>
-  <si>
-    <t>Correlation coeff of branches to instances</t>
   </si>
 </sst>
 </file>
@@ -274,7 +424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="694">
+  <cellStyleXfs count="568">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -843,139 +993,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="694">
+  <cellStyles count="568">
     <cellStyle name="Comma 2" xfId="95"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1260,69 +1286,6 @@
     <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="671" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="673" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="679" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="681" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="683" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="685" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="687" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="689" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="691" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="693" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1606,69 +1569,6 @@
     <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="606" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="608" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="610" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="618" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="620" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="622" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="624" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="626" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="628" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="630" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="632" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="634" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="636" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="638" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="640" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="642" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="644" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="646" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="648" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="650" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="652" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="654" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="656" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="658" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="660" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="662" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="664" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="666" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="668" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="670" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="672" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="674" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="676" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="678" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="680" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="682" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="684" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="686" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="688" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="690" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="692" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1688,6 +1588,1960 @@
     </mruColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KL (Empirical | Uniform)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.173669223459137"/>
+          <c:y val="0.0275229357798165"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.105589997971565"/>
+          <c:y val="0.125631496062992"/>
+          <c:w val="0.72805699287589"/>
+          <c:h val="0.415658696332683"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SliceDatasetStats!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KL (Emp | Unif)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SliceDatasetStats!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>apparel &amp; acc.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>appliances</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>automotive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>baby products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>electronics &amp; acc.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>grocery &amp; food</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>health &amp; beauty</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>home &amp; kitchen</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>jewelry &amp; watches</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>office products</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pet supplies</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>shoes</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sports &amp; outdoors</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>tickets &amp; events</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>home improvement</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>toys &amp; games</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SliceDatasetStats!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.800173055088813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65888597365944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.847145492573597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.770014935922051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.39304933557281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.875055608642033</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01464034545894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91638768287779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.725610974197082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69577114388648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39340175839287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.649266766517939</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.876927444445085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.423595926676924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.25048336033762</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.669219356855349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-1991374136"/>
+        <c:axId val="-2075342360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1991374136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075342360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075342360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1991374136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="136"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="36"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Branches</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0931105141269106"/>
+          <c:y val="0.155631397637795"/>
+          <c:w val="0.728907480314961"/>
+          <c:h val="0.409053505683803"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SliceDatasetStats!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SliceDatasetStats!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>apparel &amp; acc.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>appliances</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>automotive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>baby products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>electronics &amp; acc.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>grocery &amp; food</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>health &amp; beauty</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>home &amp; kitchen</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>jewelry &amp; watches</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>office products</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pet supplies</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>shoes</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sports &amp; outdoors</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>tickets &amp; events</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>home improvement</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>toys &amp; games</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SliceDatasetStats!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2075337400"/>
+        <c:axId val="-2075616664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2075337400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075616664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075616664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="260.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075337400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KL (Empirical | Uniform)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0798289162025478"/>
+          <c:y val="0.155631399317406"/>
+          <c:w val="0.743365821650342"/>
+          <c:h val="0.415658696332683"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AmazonJDatasetStats!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KL Divergence from Uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>AmazonJDatasetStats!$C$2:$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>appliances</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>arts, crafts &amp; sewing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>automotive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>baby products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>beauty</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>books</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>cds &amp; vinyl</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>cell phones &amp; accessories</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>clothing, shoes &amp; jewelry</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>collectibles &amp; fine art</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>electronics</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grocery &amp; food</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>health &amp; personal care</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>home &amp; kitchen</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>industrial &amp; scientific</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>movies &amp; tv</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>musical &amp; instruments</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>office products</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>patio, lawn &amp; garden</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>pet supplies</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>software</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>sports &amp; outdoors</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>home improvement</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>toys &amp; games</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>video games</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AmazonJDatasetStats!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.975765686966569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44511598922697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.62591501199768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23249725298399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.922712227110391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.06617945045789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.58391793920412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.24541963503915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5430181483919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6822267002975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.25504863089823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.65557524536775</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.979500127210511</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.24977562010911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.21362691417949</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49974137317173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.968483919363683</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.41980351628297</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.27570170798923</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.17229510107902</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.27103115850701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.28761795179335</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.02826048883334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.69228360431312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.05949347982833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2075239800"/>
+        <c:axId val="-1992054808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2075239800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1992054808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1992054808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075239800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="136"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="36"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Branches</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0953877307344778"/>
+          <c:y val="0.155631371149428"/>
+          <c:w val="0.74735010326578"/>
+          <c:h val="0.409053505683803"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AmazonJDatasetStats!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>AmazonJDatasetStats!$C$2:$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>appliances</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>arts, crafts &amp; sewing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>automotive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>baby products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>beauty</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>books</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>cds &amp; vinyl</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>cell phones &amp; accessories</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>clothing, shoes &amp; jewelry</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>collectibles &amp; fine art</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>electronics</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grocery &amp; food</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>health &amp; personal care</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>home &amp; kitchen</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>industrial &amp; scientific</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>movies &amp; tv</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>musical &amp; instruments</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>office products</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>patio, lawn &amp; garden</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>pet supplies</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>software</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>sports &amp; outdoors</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>home improvement</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>toys &amp; games</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>video games</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AmazonJDatasetStats!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2412.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2496.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>808.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>838.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1061.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1472.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>516.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2562.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1054.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>558.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>191.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2075766824"/>
+        <c:axId val="-2075669016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2075766824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075669016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075669016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2600.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075766824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KL (Empirical | Uniform)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.127428104505805"/>
+          <c:y val="0.131581025776033"/>
+          <c:w val="0.743365821650342"/>
+          <c:h val="0.402536438264366"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EbatesDatasetStats!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KL(Emp|Unif)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>EbatesDatasetStats!$B$3:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Toys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Home &amp; Furniture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jewelry &amp; Watches</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bag &amp; Accessories</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Health &amp; Beauty</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Electronics &amp; Comp.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sports &amp; Fitness</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Industrial</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Baby Products</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Baby &amp; Kids Clothes</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Men's Clothing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Women's Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EbatesDatasetStats!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.200090194089776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0849848064738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.949948309272575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23734650060732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.340633094761032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.14654803267585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.961943529071928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.292339437182142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.886034519575576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.794793309848037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.300472545444773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.365184235852218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.522709938345901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.766064661949078</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.878197488705783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2075420408"/>
+        <c:axId val="-2075859448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2075420408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075859448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075859448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075420408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="136"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="36"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Branches</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0957347322201347"/>
+          <c:y val="0.122315392740542"/>
+          <c:w val="0.728907480314961"/>
+          <c:h val="0.363321730362973"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EbatesDatasetStats!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>EbatesDatasetStats!$B$3:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Toys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Home &amp; Furniture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jewelry &amp; Watches</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bag &amp; Accessories</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Health &amp; Beauty</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Electronics &amp; Comp.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sports &amp; Fitness</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Industrial</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Baby Products</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Baby &amp; Kids Clothes</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Men's Clothing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Women's Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EbatesDatasetStats!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2076158728"/>
+        <c:axId val="-2075739624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2076158728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075739624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075739624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="260.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2076158728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2012,319 +3866,976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.80017305508881298</v>
+      </c>
+      <c r="D3">
+        <v>113</v>
+      </c>
+      <c r="E3">
+        <v>1042660</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>1.5227508765912701</v>
+      </c>
+      <c r="Q3">
+        <v>113</v>
+      </c>
+      <c r="R3">
+        <v>1042660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>20000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.6588859736594399</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>128150</v>
+      </c>
+      <c r="N4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>1.93583715488502</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <v>128150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>30000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.84714549257359695</v>
+      </c>
+      <c r="D5">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>2811587</v>
+      </c>
+      <c r="N5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <v>1.63698117042102</v>
+      </c>
+      <c r="Q5">
+        <v>88</v>
+      </c>
+      <c r="R5">
+        <v>2811587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>40000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.77001493592205095</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>119849</v>
+      </c>
+      <c r="N6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6">
+        <v>1.2205387731646</v>
+      </c>
+      <c r="Q6">
+        <v>46</v>
+      </c>
+      <c r="R6">
+        <v>119849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>70000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.39304933557281</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>351326</v>
+      </c>
+      <c r="N7" s="1">
+        <v>70000</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P7">
+        <v>1.6721643987100201</v>
+      </c>
+      <c r="Q7">
+        <v>59</v>
+      </c>
+      <c r="R7">
+        <v>351326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>100000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.87505560864203302</v>
+      </c>
+      <c r="D8">
+        <v>91</v>
+      </c>
+      <c r="E8">
+        <v>460695</v>
+      </c>
+      <c r="N8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>1.6011409004383199</v>
+      </c>
+      <c r="Q8">
+        <v>91</v>
+      </c>
+      <c r="R8">
+        <v>460695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>110000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.0146403454589401</v>
+      </c>
+      <c r="D9">
+        <v>102</v>
+      </c>
+      <c r="E9">
+        <v>1151741</v>
+      </c>
+      <c r="N9" s="1">
+        <v>110000</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9">
+        <v>1.5026318930404201</v>
+      </c>
+      <c r="Q9">
+        <v>102</v>
+      </c>
+      <c r="R9">
+        <v>1151741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>120000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.91638768287779004</v>
+      </c>
+      <c r="D10">
+        <v>149</v>
+      </c>
+      <c r="E10">
+        <v>1020877</v>
+      </c>
+      <c r="N10" s="1">
+        <v>120000</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10">
+        <v>1.1577041695542301</v>
+      </c>
+      <c r="Q10">
+        <v>149</v>
+      </c>
+      <c r="R10">
+        <v>1020877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>130000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.72561097419708198</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>385428</v>
+      </c>
+      <c r="N11" s="1">
+        <v>130000</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <v>1.6818504695772001</v>
+      </c>
+      <c r="Q11">
+        <v>42</v>
+      </c>
+      <c r="R11">
+        <v>385428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>170000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.69577114388647998</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>753339</v>
+      </c>
+      <c r="N12" s="1">
+        <v>170000</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12">
+        <v>1.6483716484413</v>
+      </c>
+      <c r="Q12">
+        <v>34</v>
+      </c>
+      <c r="R12">
+        <v>753339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>210000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.39340175839287</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>52483</v>
+      </c>
+      <c r="N13" s="1">
+        <v>210000</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>0.44313148967096699</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>52483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>230000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.64926676651793902</v>
+      </c>
+      <c r="D14">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>151855</v>
+      </c>
+      <c r="N14" s="1">
+        <v>230000</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14">
+        <v>1.1535750512285701</v>
+      </c>
+      <c r="Q14">
+        <v>57</v>
+      </c>
+      <c r="R14">
+        <v>151855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>250000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.87692744444508497</v>
+      </c>
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>813476</v>
+      </c>
+      <c r="N15" s="1">
+        <v>250000</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15">
+        <v>1.71739287708499</v>
+      </c>
+      <c r="Q15">
+        <v>110</v>
+      </c>
+      <c r="R15">
+        <v>813476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>260000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.42359592667692397</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>23256</v>
+      </c>
+      <c r="N16" s="1">
+        <v>260000</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16">
+        <v>0.385234562752784</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>23256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>270000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.25048336033762</v>
+      </c>
+      <c r="D17">
+        <v>137</v>
+      </c>
+      <c r="E17">
+        <v>2175757</v>
+      </c>
+      <c r="N17" s="1">
+        <v>270000</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17">
+        <v>1.7533804510584201</v>
+      </c>
+      <c r="Q17">
+        <v>137</v>
+      </c>
+      <c r="R17">
+        <v>2175757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>280000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.66921935685534895</v>
+      </c>
+      <c r="D18">
+        <v>68</v>
+      </c>
+      <c r="E18">
+        <v>718004</v>
+      </c>
+      <c r="N18" s="1">
+        <v>280000</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18">
+        <v>1.42272710876637</v>
+      </c>
+      <c r="Q18">
+        <v>68</v>
+      </c>
+      <c r="R18">
+        <v>718004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="E19" s="3">
+        <f>PEARSON(D3:D18,E3:E18)</f>
+        <v>0.64286470540130303</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19">
+        <f>PEARSON(Q3:Q18,R3:R18)</f>
+        <v>0.64286470540130303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="E20">
+        <f>SUM(E3:E18)</f>
+        <v>12160483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C3:C18)</f>
+        <v>0.87247682256905146</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(E3:E18)</f>
+        <v>760030.1875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.80650738341681905</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>13387692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>290000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.68648200110365698</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>1042660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>128150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>2811587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C29">
+        <v>119849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>314516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1">
+        <v>60000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>351326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>12691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>90000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C35">
+        <v>460695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>110000</v>
+      </c>
+      <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C36">
+        <v>1151741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>120000</v>
+      </c>
+      <c r="B37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1.5227508765912701</v>
-      </c>
-      <c r="D2">
-        <v>113</v>
-      </c>
-      <c r="E2">
-        <v>1042660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1.93583715488502</v>
-      </c>
-      <c r="D3">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>128150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>30000</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.63698117042102</v>
-      </c>
-      <c r="D4">
-        <v>88</v>
-      </c>
-      <c r="E4">
-        <v>2811587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>40000</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1.2205387731646</v>
-      </c>
-      <c r="D5">
+      <c r="C37">
+        <v>1020877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>130000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>385428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>140000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>150000</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>159666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>160000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>227994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>170000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>753339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>180000</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>190000</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>30824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>210000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <v>52483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>220000</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="E5">
-        <v>119849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>70000</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1.6721643987100201</v>
-      </c>
-      <c r="D6">
-        <v>59</v>
-      </c>
-      <c r="E6">
-        <v>351326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1.6011409004383199</v>
-      </c>
-      <c r="D7">
-        <v>91</v>
-      </c>
-      <c r="E7">
-        <v>460695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>110000</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1.5026318930404201</v>
-      </c>
-      <c r="D8">
-        <v>102</v>
-      </c>
-      <c r="E8">
-        <v>1151741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>120000</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1.1577041695542301</v>
-      </c>
-      <c r="D9">
-        <v>149</v>
-      </c>
-      <c r="E9">
-        <v>1020877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>130000</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1.6818504695772001</v>
-      </c>
-      <c r="D10">
-        <v>42</v>
-      </c>
-      <c r="E10">
-        <v>385428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>170000</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1.6483716484413</v>
-      </c>
-      <c r="D11">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <v>753339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>210000</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>0.44313148967096699</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>52483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="C47">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
         <v>230000</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>1.1535750512285701</v>
-      </c>
-      <c r="D13">
-        <v>57</v>
-      </c>
-      <c r="E13">
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
         <v>151855</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>240000</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>461746</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
         <v>250000</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1.71739287708499</v>
-      </c>
-      <c r="D14">
-        <v>110</v>
-      </c>
-      <c r="E14">
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
         <v>813476</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
         <v>260000</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>0.385234562752784</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51">
         <v>23256</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
         <v>270000</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>1.7533804510584201</v>
-      </c>
-      <c r="D16">
-        <v>137</v>
-      </c>
-      <c r="E16">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
         <v>2175757</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
         <v>280000</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>1.42272710876637</v>
-      </c>
-      <c r="D17">
-        <v>68</v>
-      </c>
-      <c r="E17">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
         <v>718004</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18">
-        <f>PEARSON(D2:D17,E2:E17)</f>
-        <v>0.64286470540130303</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>290000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54">
+        <v>3647</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2335,471 +4846,1399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1">
+        <v>90000</v>
+      </c>
+      <c r="B2">
+        <v>90000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.97576568696656896</v>
+      </c>
+      <c r="E2">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>6623</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1">
+        <v>120000</v>
+      </c>
+      <c r="B3">
+        <v>120000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.44511598922697</v>
+      </c>
+      <c r="E3">
+        <v>424</v>
+      </c>
+      <c r="F3">
+        <v>116010</v>
+      </c>
+      <c r="P3">
+        <v>90000</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>1.0694950927545901</v>
+      </c>
+      <c r="S3">
+        <v>111</v>
+      </c>
+      <c r="T3">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>130000</v>
+      </c>
+      <c r="B4">
+        <v>130000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.62591501199768</v>
+      </c>
+      <c r="E4">
+        <v>2412</v>
+      </c>
+      <c r="F4">
+        <v>324342</v>
+      </c>
+      <c r="P4">
+        <v>120000</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4">
+        <v>1.5822305365405001</v>
+      </c>
+      <c r="S4">
+        <v>424</v>
+      </c>
+      <c r="T4">
+        <v>116010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
+        <v>140000</v>
+      </c>
+      <c r="B5">
+        <v>140000</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D5" s="2">
+        <v>1.2324972529839899</v>
+      </c>
+      <c r="E5">
+        <v>209</v>
+      </c>
+      <c r="F5">
+        <v>9740</v>
+      </c>
+      <c r="P5">
+        <v>130000</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5">
+        <v>1.80863781163266</v>
+      </c>
+      <c r="S5">
+        <v>2412</v>
+      </c>
+      <c r="T5">
+        <v>324342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
+        <v>150000</v>
+      </c>
+      <c r="B6">
+        <v>150000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.92271222711039103</v>
+      </c>
+      <c r="E6">
+        <v>266</v>
+      </c>
+      <c r="F6">
+        <v>257119</v>
+      </c>
+      <c r="P6">
+        <v>140000</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6">
+        <v>1.3016875910039301</v>
+      </c>
+      <c r="S6">
+        <v>209</v>
+      </c>
+      <c r="T6">
+        <v>9740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
+        <v>170000</v>
+      </c>
+      <c r="B7">
+        <v>170000</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.0661794504578896</v>
+      </c>
+      <c r="E7">
+        <v>159</v>
+      </c>
+      <c r="F7">
+        <v>1907841</v>
+      </c>
+      <c r="P7">
+        <v>150000</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7">
+        <v>1.2446754619801801</v>
+      </c>
+      <c r="S7">
+        <v>266</v>
+      </c>
+      <c r="T7">
+        <v>257119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B8">
+        <v>200000</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.5839179392041201</v>
+      </c>
+      <c r="E8">
+        <v>455</v>
+      </c>
+      <c r="F8">
+        <v>339899</v>
+      </c>
+      <c r="P8">
+        <v>170000</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8">
+        <v>8.9326847045117894</v>
+      </c>
+      <c r="S8">
+        <v>159</v>
+      </c>
+      <c r="T8">
+        <v>1907841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>240000</v>
+      </c>
+      <c r="B9">
+        <v>240000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.2454196350391502</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>340246</v>
+      </c>
+      <c r="P9">
+        <v>200000</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9">
+        <v>2.2264857440613599</v>
+      </c>
+      <c r="S9">
+        <v>455</v>
+      </c>
+      <c r="T9">
+        <v>339899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>290000</v>
+      </c>
+      <c r="B10">
+        <v>290000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.5430181483919001</v>
+      </c>
+      <c r="E10">
+        <v>2496</v>
+      </c>
+      <c r="F10">
+        <v>1159948</v>
+      </c>
+      <c r="P10">
+        <v>240000</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10">
+        <v>2.8347242378564701</v>
+      </c>
+      <c r="S10">
+        <v>50</v>
+      </c>
+      <c r="T10">
+        <v>340246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>310000</v>
+      </c>
+      <c r="B11">
+        <v>310000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.6822267002975</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>2374</v>
+      </c>
+      <c r="P11">
+        <v>290000</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11">
+        <v>2.5196471517624399</v>
+      </c>
+      <c r="S11">
+        <v>2496</v>
+      </c>
+      <c r="T11">
+        <v>1159948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>370000</v>
+      </c>
+      <c r="B12">
+        <v>370000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.25504863089823</v>
+      </c>
+      <c r="E12">
+        <v>808</v>
+      </c>
+      <c r="F12">
+        <v>484555</v>
+      </c>
+      <c r="P12">
+        <v>310000</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12">
+        <v>1.8875548218895499</v>
+      </c>
+      <c r="S12">
+        <v>55</v>
+      </c>
+      <c r="T12">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>450000</v>
+      </c>
+      <c r="B13">
+        <v>450000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.6555752453677499</v>
+      </c>
+      <c r="E13">
+        <v>510</v>
+      </c>
+      <c r="F13">
+        <v>171228</v>
+      </c>
+      <c r="P13">
+        <v>370000</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13">
+        <v>1.52945282308439</v>
+      </c>
+      <c r="S13">
+        <v>808</v>
+      </c>
+      <c r="T13">
+        <v>484555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>470000</v>
+      </c>
+      <c r="B14">
+        <v>470000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.97950012721051105</v>
+      </c>
+      <c r="E14">
+        <v>838</v>
+      </c>
+      <c r="F14">
+        <v>259059</v>
+      </c>
+      <c r="P14">
+        <v>450000</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>3.83820044522641</v>
+      </c>
+      <c r="S14">
+        <v>510</v>
+      </c>
+      <c r="T14">
+        <v>171228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>480000</v>
+      </c>
+      <c r="B15">
+        <v>480000</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="D15" s="2">
+        <v>1.2497756201091099</v>
+      </c>
+      <c r="E15">
+        <v>1061</v>
+      </c>
+      <c r="F15">
+        <v>430020</v>
+      </c>
+      <c r="P15">
+        <v>470000</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15">
+        <v>1.0480090941734099</v>
+      </c>
+      <c r="S15">
+        <v>838</v>
+      </c>
+      <c r="T15">
+        <v>259059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B16">
+        <v>500000</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.21362691417949</v>
+      </c>
+      <c r="E16">
+        <v>1472</v>
+      </c>
+      <c r="F16">
+        <v>47044</v>
+      </c>
+      <c r="P16">
+        <v>480000</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16">
+        <v>1.36086942419851</v>
+      </c>
+      <c r="S16">
+        <v>1061</v>
+      </c>
+      <c r="T16">
+        <v>430020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
+        <v>610000</v>
+      </c>
+      <c r="B17">
+        <v>610000</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.49974137317173001</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>97072</v>
+      </c>
+      <c r="P17">
+        <v>500000</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R17">
+        <v>1.20134569622168</v>
+      </c>
+      <c r="S17">
+        <v>1472</v>
+      </c>
+      <c r="T17">
+        <v>47044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>620000</v>
+      </c>
+      <c r="B18">
+        <v>620000</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.96848391936368305</v>
+      </c>
+      <c r="E18">
+        <v>634</v>
+      </c>
+      <c r="F18">
+        <v>67497</v>
+      </c>
+      <c r="P18">
+        <v>610000</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R18">
+        <v>1.17435841692369</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>97072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>650000</v>
+      </c>
+      <c r="B19">
+        <v>650000</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.4198035162829701</v>
+      </c>
+      <c r="E19">
+        <v>608</v>
+      </c>
+      <c r="F19">
+        <v>133409</v>
+      </c>
+      <c r="P19">
+        <v>620000</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19">
+        <v>1.1607096870320901</v>
+      </c>
+      <c r="S19">
+        <v>634</v>
+      </c>
+      <c r="T19">
+        <v>67497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>660000</v>
+      </c>
+      <c r="B20">
+        <v>660000</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.2757017079892301</v>
+      </c>
+      <c r="E20">
+        <v>645</v>
+      </c>
+      <c r="F20">
+        <v>108305</v>
+      </c>
+      <c r="P20">
+        <v>650000</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20">
+        <v>1.4613913865586099</v>
+      </c>
+      <c r="S20">
+        <v>608</v>
+      </c>
+      <c r="T20">
+        <v>133409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>670000</v>
+      </c>
+      <c r="B21">
+        <v>670000</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.1722951010790199</v>
+      </c>
+      <c r="E21">
+        <v>516</v>
+      </c>
+      <c r="F21">
+        <v>107648</v>
+      </c>
+      <c r="P21">
+        <v>660000</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21">
+        <v>1.7313429830718801</v>
+      </c>
+      <c r="S21">
+        <v>645</v>
+      </c>
+      <c r="T21">
+        <v>108305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>740000</v>
+      </c>
+      <c r="B22">
+        <v>740000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.27103115850701</v>
+      </c>
+      <c r="E22">
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>1019</v>
+      </c>
+      <c r="P22">
+        <v>670000</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22">
+        <v>1.46833436961052</v>
+      </c>
+      <c r="S22">
+        <v>516</v>
+      </c>
+      <c r="T22">
+        <v>107648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>750000</v>
+      </c>
+      <c r="B23">
+        <v>750000</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.2876179517933499</v>
+      </c>
+      <c r="E23">
+        <v>2562</v>
+      </c>
+      <c r="F23">
+        <v>490039</v>
+      </c>
+      <c r="P23">
+        <v>740000</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23">
+        <v>1.0181852069328701</v>
+      </c>
+      <c r="S23">
+        <v>91</v>
+      </c>
+      <c r="T23">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>770000</v>
+      </c>
+      <c r="B24">
+        <v>770000</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.02826048883334</v>
+      </c>
+      <c r="E24">
+        <v>1054</v>
+      </c>
+      <c r="F24">
+        <v>266897</v>
+      </c>
+      <c r="P24">
+        <v>750000</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R24">
+        <v>1.3414152864523201</v>
+      </c>
+      <c r="S24">
+        <v>2562</v>
+      </c>
+      <c r="T24">
+        <v>490039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>780000</v>
+      </c>
+      <c r="B25">
+        <v>780000</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.69228360431312</v>
+      </c>
+      <c r="E25">
+        <v>558</v>
+      </c>
+      <c r="F25">
+        <v>333850</v>
+      </c>
+      <c r="P25">
+        <v>770000</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25">
+        <v>1.1329559278110899</v>
+      </c>
+      <c r="S25">
+        <v>1054</v>
+      </c>
+      <c r="T25">
+        <v>266897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>790000</v>
+      </c>
+      <c r="B26">
+        <v>790000</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.05949347982833</v>
+      </c>
+      <c r="E26">
+        <v>191</v>
+      </c>
+      <c r="F26">
+        <v>2191</v>
+      </c>
+      <c r="P26">
+        <v>780000</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26">
+        <v>1.74037385310154</v>
+      </c>
+      <c r="S26">
+        <v>558</v>
+      </c>
+      <c r="T26">
+        <v>333850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <f>PEARSON(E2:E26,F2:F26)</f>
+        <v>0.26906993846390143</v>
+      </c>
+      <c r="P27">
+        <v>790000</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R27">
+        <v>0.98755775401961798</v>
+      </c>
+      <c r="S27">
+        <v>191</v>
+      </c>
+      <c r="T27">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F2:F26)</f>
+        <v>7463975</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(F2:F26)</f>
+        <v>298559</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28">
+        <f>PEARSON(S3:S27,T3:T27)</f>
+        <v>0.26906993846390143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(D2:D26)</f>
+        <v>1.6540402752241214</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(F2:F26)</f>
+        <v>298559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="B30">
         <v>90000</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1.0694950927545901</v>
-      </c>
-      <c r="D2">
+      <c r="C30">
+        <v>90000</v>
+      </c>
+      <c r="D30">
+        <v>0.97576568696656896</v>
+      </c>
+      <c r="E30">
         <v>111</v>
       </c>
-      <c r="E2">
+      <c r="F30">
         <v>6623</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="31" spans="1:20">
+      <c r="B31">
         <v>120000</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>1.5822305365405001</v>
-      </c>
-      <c r="D3">
+      <c r="C31">
+        <v>120000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.44511598922697</v>
+      </c>
+      <c r="E31">
         <v>424</v>
       </c>
-      <c r="E3">
+      <c r="F31">
         <v>116010</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="32" spans="1:20">
+      <c r="B32">
         <v>130000</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>1.80863781163266</v>
-      </c>
-      <c r="D4">
+      <c r="C32">
+        <v>130000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.62591501199768</v>
+      </c>
+      <c r="E32">
         <v>2412</v>
       </c>
-      <c r="E4">
+      <c r="F32">
         <v>324342</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="33" spans="2:6">
+      <c r="B33">
         <v>140000</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1.3016875910039301</v>
-      </c>
-      <c r="D5">
+      <c r="C33">
+        <v>140000</v>
+      </c>
+      <c r="D33">
+        <v>1.2324972529839899</v>
+      </c>
+      <c r="E33">
         <v>209</v>
       </c>
-      <c r="E5">
+      <c r="F33">
         <v>9740</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="34" spans="2:6">
+      <c r="B34">
         <v>150000</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>1.2446754619801801</v>
-      </c>
-      <c r="D6">
+      <c r="C34">
+        <v>150000</v>
+      </c>
+      <c r="D34">
+        <v>0.92271222711039103</v>
+      </c>
+      <c r="E34">
         <v>266</v>
       </c>
-      <c r="E6">
+      <c r="F34">
         <v>257119</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="35" spans="2:6">
+      <c r="B35">
         <v>170000</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>8.9326847045117894</v>
-      </c>
-      <c r="D7">
+      <c r="C35">
+        <v>170000</v>
+      </c>
+      <c r="D35">
+        <v>5.0661794504578896</v>
+      </c>
+      <c r="E35">
         <v>159</v>
       </c>
-      <c r="E7">
+      <c r="F35">
         <v>1907841</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="36" spans="2:6">
+      <c r="B36">
         <v>200000</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>2.2264857440613599</v>
-      </c>
-      <c r="D8">
+      <c r="C36">
+        <v>200000</v>
+      </c>
+      <c r="D36">
+        <v>1.5839179392041201</v>
+      </c>
+      <c r="E36">
         <v>455</v>
       </c>
-      <c r="E8">
+      <c r="F36">
         <v>339899</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="37" spans="2:6">
+      <c r="B37">
         <v>240000</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>2.8347242378564701</v>
-      </c>
-      <c r="D9">
+      <c r="C37">
+        <v>240000</v>
+      </c>
+      <c r="D37">
+        <v>2.2454196350391502</v>
+      </c>
+      <c r="E37">
         <v>50</v>
       </c>
-      <c r="E9">
+      <c r="F37">
         <v>340246</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="38" spans="2:6">
+      <c r="B38">
         <v>290000</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>2.5196471517624399</v>
-      </c>
-      <c r="D10">
+      <c r="C38">
+        <v>290000</v>
+      </c>
+      <c r="D38">
+        <v>2.5430181483919001</v>
+      </c>
+      <c r="E38">
         <v>2496</v>
       </c>
-      <c r="E10">
+      <c r="F38">
         <v>1159948</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+    <row r="39" spans="2:6">
+      <c r="B39">
         <v>310000</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>1.8875548218895499</v>
-      </c>
-      <c r="D11">
+      <c r="C39">
+        <v>310000</v>
+      </c>
+      <c r="D39">
+        <v>1.6822267002975</v>
+      </c>
+      <c r="E39">
         <v>55</v>
       </c>
-      <c r="E11">
+      <c r="F39">
         <v>2374</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+    <row r="40" spans="2:6">
+      <c r="B40">
         <v>370000</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>1.52945282308439</v>
-      </c>
-      <c r="D12">
+      <c r="C40">
+        <v>370000</v>
+      </c>
+      <c r="D40">
+        <v>1.25504863089823</v>
+      </c>
+      <c r="E40">
         <v>808</v>
       </c>
-      <c r="E12">
+      <c r="F40">
         <v>484555</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+    <row r="41" spans="2:6">
+      <c r="B41">
         <v>450000</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>3.83820044522641</v>
-      </c>
-      <c r="D13">
+      <c r="C41">
+        <v>450000</v>
+      </c>
+      <c r="D41">
+        <v>5.6555752453677499</v>
+      </c>
+      <c r="E41">
         <v>510</v>
       </c>
-      <c r="E13">
+      <c r="F41">
         <v>171228</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="42" spans="2:6">
+      <c r="B42">
         <v>470000</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>1.0480090941734099</v>
-      </c>
-      <c r="D14">
+      <c r="C42">
+        <v>470000</v>
+      </c>
+      <c r="D42">
+        <v>0.97950012721051105</v>
+      </c>
+      <c r="E42">
         <v>838</v>
       </c>
-      <c r="E14">
+      <c r="F42">
         <v>259059</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+    <row r="43" spans="2:6">
+      <c r="B43">
         <v>480000</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>1.36086942419851</v>
-      </c>
-      <c r="D15">
+      <c r="C43">
+        <v>480000</v>
+      </c>
+      <c r="D43">
+        <v>1.2497756201091099</v>
+      </c>
+      <c r="E43">
         <v>1061</v>
       </c>
-      <c r="E15">
+      <c r="F43">
         <v>430020</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="44" spans="2:6">
+      <c r="B44">
         <v>500000</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>1.20134569622168</v>
-      </c>
-      <c r="D16">
+      <c r="C44">
+        <v>500000</v>
+      </c>
+      <c r="D44">
+        <v>1.21362691417949</v>
+      </c>
+      <c r="E44">
         <v>1472</v>
       </c>
-      <c r="E16">
+      <c r="F44">
         <v>47044</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+    <row r="45" spans="2:6">
+      <c r="B45">
         <v>610000</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>1.17435841692369</v>
-      </c>
-      <c r="D17">
+      <c r="C45">
+        <v>610000</v>
+      </c>
+      <c r="D45">
+        <v>0.49974137317173001</v>
+      </c>
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="F45">
         <v>97072</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+    <row r="46" spans="2:6">
+      <c r="B46">
         <v>620000</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>1.1607096870320901</v>
-      </c>
-      <c r="D18">
+      <c r="C46">
+        <v>620000</v>
+      </c>
+      <c r="D46">
+        <v>0.96848391936368305</v>
+      </c>
+      <c r="E46">
         <v>634</v>
       </c>
-      <c r="E18">
+      <c r="F46">
         <v>67497</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+    <row r="47" spans="2:6">
+      <c r="B47">
         <v>650000</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>1.4613913865586099</v>
-      </c>
-      <c r="D19">
+      <c r="C47">
+        <v>650000</v>
+      </c>
+      <c r="D47">
+        <v>1.4198035162829701</v>
+      </c>
+      <c r="E47">
         <v>608</v>
       </c>
-      <c r="E19">
+      <c r="F47">
         <v>133409</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+    <row r="48" spans="2:6">
+      <c r="B48">
         <v>660000</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20">
-        <v>1.7313429830718801</v>
-      </c>
-      <c r="D20">
+      <c r="C48">
+        <v>660000</v>
+      </c>
+      <c r="D48">
+        <v>1.2757017079892301</v>
+      </c>
+      <c r="E48">
         <v>645</v>
       </c>
-      <c r="E20">
+      <c r="F48">
         <v>108305</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+    <row r="49" spans="2:6">
+      <c r="B49">
         <v>670000</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>1.46833436961052</v>
-      </c>
-      <c r="D21">
+      <c r="C49">
+        <v>670000</v>
+      </c>
+      <c r="D49">
+        <v>1.1722951010790199</v>
+      </c>
+      <c r="E49">
         <v>516</v>
       </c>
-      <c r="E21">
+      <c r="F49">
         <v>107648</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+    <row r="50" spans="2:6">
+      <c r="B50">
         <v>740000</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22">
-        <v>1.0181852069328701</v>
-      </c>
-      <c r="D22">
+      <c r="C50">
+        <v>740000</v>
+      </c>
+      <c r="D50">
+        <v>1.27103115850701</v>
+      </c>
+      <c r="E50">
         <v>91</v>
       </c>
-      <c r="E22">
+      <c r="F50">
         <v>1019</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    <row r="51" spans="2:6">
+      <c r="B51">
         <v>750000</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23">
-        <v>1.3414152864523201</v>
-      </c>
-      <c r="D23">
+      <c r="C51">
+        <v>750000</v>
+      </c>
+      <c r="D51">
+        <v>1.2876179517933499</v>
+      </c>
+      <c r="E51">
         <v>2562</v>
       </c>
-      <c r="E23">
+      <c r="F51">
         <v>490039</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+    <row r="52" spans="2:6">
+      <c r="B52">
         <v>770000</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24">
-        <v>1.1329559278110899</v>
-      </c>
-      <c r="D24">
+      <c r="C52">
+        <v>770000</v>
+      </c>
+      <c r="D52">
+        <v>1.02826048883334</v>
+      </c>
+      <c r="E52">
         <v>1054</v>
       </c>
-      <c r="E24">
+      <c r="F52">
         <v>266897</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+    <row r="53" spans="2:6">
+      <c r="B53">
         <v>780000</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>1.74037385310154</v>
-      </c>
-      <c r="D25">
+      <c r="C53">
+        <v>780000</v>
+      </c>
+      <c r="D53">
+        <v>1.69228360431312</v>
+      </c>
+      <c r="E53">
         <v>558</v>
       </c>
-      <c r="E25">
+      <c r="F53">
         <v>333850</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+    <row r="54" spans="2:6">
+      <c r="B54">
         <v>790000</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>0.98755775401961798</v>
-      </c>
-      <c r="D26">
+      <c r="C54">
+        <v>790000</v>
+      </c>
+      <c r="D54">
+        <v>1.05949347982833</v>
+      </c>
+      <c r="E54">
         <v>191</v>
       </c>
-      <c r="E26">
+      <c r="F54">
         <v>2191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27">
-        <f>PEARSON(D2:D26,E2:E26)</f>
-        <v>0.26906993846390143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2810,305 +6249,847 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>20000</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.20009019408977599</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2233634</v>
+      </c>
+      <c r="M3">
+        <v>20000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3">
         <v>0.273677958884951</v>
       </c>
-      <c r="D2">
+      <c r="P3">
         <v>16</v>
       </c>
-      <c r="E2">
+      <c r="Q3">
         <v>2233634</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>30000</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0849848064737999</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <v>10792816</v>
+      </c>
+      <c r="M4">
+        <v>30000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4">
         <v>1.7151713396348101</v>
       </c>
-      <c r="D3">
+      <c r="P4">
         <v>79</v>
       </c>
-      <c r="E3">
+      <c r="Q4">
         <v>10792816</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>40000</v>
       </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.94994830927257501</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>3013241</v>
+      </c>
+      <c r="M5">
+        <v>40000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5">
         <v>2.9543593291194101</v>
       </c>
-      <c r="D4">
+      <c r="P5">
         <v>36</v>
       </c>
-      <c r="E4">
+      <c r="Q5">
         <v>3013241</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>70000</v>
       </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.2373465006073201</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>1425157</v>
+      </c>
+      <c r="M6">
+        <v>70000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6">
         <v>4.9821080432408698</v>
       </c>
-      <c r="D5">
+      <c r="P6">
         <v>51</v>
       </c>
-      <c r="E5">
+      <c r="Q6">
         <v>1425157</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>80000</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.34063309476103198</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>5247093</v>
+      </c>
+      <c r="M7">
+        <v>80000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7">
         <v>0.80340501957812605</v>
       </c>
-      <c r="D6">
+      <c r="P7">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="Q7">
         <v>5247093</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>90000</v>
       </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.1465480326758499</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>2383758</v>
+      </c>
+      <c r="M8">
+        <v>90000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8">
         <v>3.7357518315973999</v>
       </c>
-      <c r="D7">
+      <c r="P8">
         <v>55</v>
       </c>
-      <c r="E7">
+      <c r="Q8">
         <v>2383758</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>100000</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.96194352907192804</v>
+      </c>
+      <c r="D9">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>10271628</v>
+      </c>
+      <c r="M9">
+        <v>100000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9">
         <v>3.1274536154057002</v>
       </c>
-      <c r="D8">
+      <c r="P9">
         <v>59</v>
       </c>
-      <c r="E8">
+      <c r="Q9">
         <v>10271628</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
         <v>110000</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.292339437182142</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>3407930</v>
+      </c>
+      <c r="M10">
+        <v>110000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10">
         <v>0.44592715340557998</v>
       </c>
-      <c r="D9">
+      <c r="P10">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="Q10">
         <v>3407930</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>120000</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.886034519575576</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1974104</v>
+      </c>
+      <c r="M11">
+        <v>120000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11">
+        <v>2.64097925091902</v>
+      </c>
+      <c r="P11">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>1974104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>130000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.79479330984803698</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>7317257</v>
+      </c>
+      <c r="M12">
+        <v>130000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>1.1338474971356101</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>7317257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>140000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.30047254544477298</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5417114</v>
+      </c>
+      <c r="M13">
+        <v>140000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>0.40569684129654399</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>5417114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>180000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.36518423585221799</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>282650</v>
+      </c>
+      <c r="M14">
+        <v>180000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.427446827089493</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>282650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>210000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.52270993834590096</v>
+      </c>
+      <c r="D15">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>624913</v>
+      </c>
+      <c r="M15">
+        <v>210000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15">
+        <v>1.10279313381348</v>
+      </c>
+      <c r="P15">
+        <v>62</v>
+      </c>
+      <c r="Q15">
+        <v>624913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>250000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.76606466194907796</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>1469219</v>
+      </c>
+      <c r="M16">
+        <v>250000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>3.0523731684912101</v>
+      </c>
+      <c r="P16">
+        <v>41</v>
+      </c>
+      <c r="Q16">
+        <v>1469219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>260000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.87819748870578296</v>
+      </c>
+      <c r="D17">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>2672169</v>
+      </c>
+      <c r="M17">
+        <v>260000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2.0299786536886502</v>
+      </c>
+      <c r="P17">
+        <v>63</v>
+      </c>
+      <c r="Q17">
+        <v>2672169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="E18">
+        <f>SUM(E3:E17)</f>
+        <v>58532683</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18">
+        <f>PEARSON(P3:P17,Q3:Q17)</f>
+        <v>0.20935700047565201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3">
+        <f>AVERAGE(C3:C17)</f>
+        <v>0.71515270692371946</v>
+      </c>
+      <c r="D19" s="2">
+        <f>AVERAGE(D3:D17)</f>
+        <v>38.06666666666667</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(E3:E17)</f>
+        <v>3902178.8666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <f>PEARSON(D3:D17,E3:E17)</f>
+        <v>0.20935700047565201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>2233634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="C10">
-        <v>2.64097925091902</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
+      <c r="D32">
+        <v>10792816</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>3013154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34">
+        <v>1424909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>5247092</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>90000</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2383758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>10271628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>110000</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>3407930</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>120000</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39">
         <v>1974104</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
         <v>130000</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>1.1338474971356101</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
         <v>7317257</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
         <v>140000</v>
       </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12">
-        <v>0.40569684129654399</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
         <v>5417114</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
         <v>180000</v>
       </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <v>0.427446827089493</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>282650</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>190000</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>1556702</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
         <v>210000</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14">
-        <v>1.10279313381348</v>
-      </c>
-      <c r="D14">
-        <v>62</v>
-      </c>
-      <c r="E14">
+      <c r="B44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
         <v>624913</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
         <v>250000</v>
       </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15">
-        <v>3.0523731684912101</v>
-      </c>
-      <c r="D15">
-        <v>41</v>
-      </c>
-      <c r="E15">
+      <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45">
         <v>1469219</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
         <v>260000</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16">
-        <v>2.0299786536886502</v>
-      </c>
-      <c r="D16">
-        <v>63</v>
-      </c>
-      <c r="E16">
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46">
         <v>2672169</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17">
-        <f>PEARSON(D2:D16,E2:E16)</f>
-        <v>0.20935700047565201</v>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>270000</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47">
+        <v>143426</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:F16">
-    <sortCondition ref="C2"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3122,43 +7103,44 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2">
+        <v>109</v>
+      </c>
+      <c r="B2" s="3">
         <v>0.64286470540130303</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2">
+        <v>110</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.26906993846390143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2">
+        <v>111</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.20935700047565201</v>
       </c>
     </row>

--- a/coling2016/props/Dataset-stats-COLING-2016.xlsx
+++ b/coling2016/props/Dataset-stats-COLING-2016.xlsx
@@ -424,7 +424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="568">
+  <cellStyleXfs count="574">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -521,6 +521,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1001,7 +1007,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="568">
+  <cellStyles count="574">
     <cellStyle name="Comma 2" xfId="95"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1286,6 +1292,9 @@
     <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1569,6 +1578,9 @@
     <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1792,11 +1804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1991374136"/>
-        <c:axId val="-2075342360"/>
+        <c:axId val="-1991644712"/>
+        <c:axId val="-2076158088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1991374136"/>
+        <c:axId val="-1991644712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075342360"/>
+        <c:crossAx val="-2076158088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1833,7 +1845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075342360"/>
+        <c:axId val="-2076158088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -1855,7 +1867,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1991374136"/>
+        <c:crossAx val="-1991644712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2068,11 +2080,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2075337400"/>
-        <c:axId val="-2075616664"/>
+        <c:axId val="-2077363704"/>
+        <c:axId val="-1992230040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075337400"/>
+        <c:axId val="-2077363704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075616664"/>
+        <c:crossAx val="-1992230040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2109,7 +2121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075616664"/>
+        <c:axId val="-1992230040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260.0"/>
@@ -2132,7 +2144,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075337400"/>
+        <c:crossAx val="-2077363704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50.0"/>
@@ -2180,6 +2192,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2398,11 +2411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2075239800"/>
-        <c:axId val="-1992054808"/>
+        <c:axId val="-2076069208"/>
+        <c:axId val="-2050436648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075239800"/>
+        <c:axId val="-2076069208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1992054808"/>
+        <c:crossAx val="-2050436648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2439,7 +2452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1992054808"/>
+        <c:axId val="-2050436648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2473,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075239800"/>
+        <c:crossAx val="-2076069208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2507,6 +2520,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2718,11 +2732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2075766824"/>
-        <c:axId val="-2075669016"/>
+        <c:axId val="-2075671928"/>
+        <c:axId val="-2011836904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075766824"/>
+        <c:axId val="-2075671928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075669016"/>
+        <c:crossAx val="-2011836904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2759,7 +2773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075669016"/>
+        <c:axId val="-2011836904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2600.0"/>
@@ -2782,7 +2796,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075766824"/>
+        <c:crossAx val="-2075671928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2829,6 +2843,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2987,11 +3002,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2075420408"/>
-        <c:axId val="-2075859448"/>
+        <c:axId val="-2080086872"/>
+        <c:axId val="-2055169128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075420408"/>
+        <c:axId val="-2080086872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,7 +3035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075859448"/>
+        <c:crossAx val="-2055169128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3028,7 +3043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075859448"/>
+        <c:axId val="-2055169128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -3050,7 +3065,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075420408"/>
+        <c:crossAx val="-2080086872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3097,6 +3112,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3256,11 +3272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2076158728"/>
-        <c:axId val="-2075739624"/>
+        <c:axId val="-2051676584"/>
+        <c:axId val="-2125501656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076158728"/>
+        <c:axId val="-2051676584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,7 +3305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075739624"/>
+        <c:crossAx val="-2125501656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3297,7 +3313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075739624"/>
+        <c:axId val="-2125501656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260.0"/>
@@ -3320,7 +3336,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076158728"/>
+        <c:crossAx val="-2051676584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3444,14 +3460,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3869,7 +3885,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:R19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4450,6 +4466,10 @@
         <v>32</v>
       </c>
       <c r="C20" s="2"/>
+      <c r="D20">
+        <f>SUM(D3:D18)</f>
+        <v>1146</v>
+      </c>
       <c r="E20">
         <f>SUM(E3:E18)</f>
         <v>12160483</v>
@@ -4846,10 +4866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:T28"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5781,6 +5801,10 @@
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E28">
+        <f>SUM(E2:E26)</f>
+        <v>18188</v>
+      </c>
       <c r="F28">
         <f>SUM(F2:F26)</f>
         <v>7463975</v>
@@ -5811,427 +5835,433 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="B30">
-        <v>90000</v>
-      </c>
-      <c r="C30">
-        <v>90000</v>
-      </c>
-      <c r="D30">
-        <v>0.97576568696656896</v>
-      </c>
-      <c r="E30">
-        <v>111</v>
-      </c>
-      <c r="F30">
-        <v>6623</v>
-      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="B31">
-        <v>120000</v>
-      </c>
-      <c r="C31">
-        <v>120000</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.44511598922697</v>
-      </c>
-      <c r="E31">
-        <v>424</v>
-      </c>
-      <c r="F31">
-        <v>116010</v>
-      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:20">
       <c r="B32">
-        <v>130000</v>
+        <v>90000</v>
       </c>
       <c r="C32">
-        <v>130000</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.62591501199768</v>
+        <v>90000</v>
+      </c>
+      <c r="D32">
+        <v>0.97576568696656896</v>
       </c>
       <c r="E32">
-        <v>2412</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>324342</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="C33">
-        <v>140000</v>
-      </c>
-      <c r="D33">
-        <v>1.2324972529839899</v>
+        <v>120000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.44511598922697</v>
       </c>
       <c r="E33">
-        <v>209</v>
+        <v>424</v>
       </c>
       <c r="F33">
-        <v>9740</v>
+        <v>116010</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="C34">
-        <v>150000</v>
-      </c>
-      <c r="D34">
-        <v>0.92271222711039103</v>
+        <v>130000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.62591501199768</v>
       </c>
       <c r="E34">
-        <v>266</v>
+        <v>2412</v>
       </c>
       <c r="F34">
-        <v>257119</v>
+        <v>324342</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="C35">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="D35">
-        <v>5.0661794504578896</v>
+        <v>1.2324972529839899</v>
       </c>
       <c r="E35">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="F35">
-        <v>1907841</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="C36">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="D36">
-        <v>1.5839179392041201</v>
+        <v>0.92271222711039103</v>
       </c>
       <c r="E36">
-        <v>455</v>
+        <v>266</v>
       </c>
       <c r="F36">
-        <v>339899</v>
+        <v>257119</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="C37">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="D37">
-        <v>2.2454196350391502</v>
+        <v>5.0661794504578896</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="F37">
-        <v>340246</v>
+        <v>1907841</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="C38">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="D38">
-        <v>2.5430181483919001</v>
+        <v>1.5839179392041201</v>
       </c>
       <c r="E38">
-        <v>2496</v>
+        <v>455</v>
       </c>
       <c r="F38">
-        <v>1159948</v>
+        <v>339899</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39">
-        <v>310000</v>
+        <v>240000</v>
       </c>
       <c r="C39">
-        <v>310000</v>
+        <v>240000</v>
       </c>
       <c r="D39">
-        <v>1.6822267002975</v>
+        <v>2.2454196350391502</v>
       </c>
       <c r="E39">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>2374</v>
+        <v>340246</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40">
-        <v>370000</v>
+        <v>290000</v>
       </c>
       <c r="C40">
-        <v>370000</v>
+        <v>290000</v>
       </c>
       <c r="D40">
-        <v>1.25504863089823</v>
+        <v>2.5430181483919001</v>
       </c>
       <c r="E40">
-        <v>808</v>
+        <v>2496</v>
       </c>
       <c r="F40">
-        <v>484555</v>
+        <v>1159948</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41">
-        <v>450000</v>
+        <v>310000</v>
       </c>
       <c r="C41">
-        <v>450000</v>
+        <v>310000</v>
       </c>
       <c r="D41">
-        <v>5.6555752453677499</v>
+        <v>1.6822267002975</v>
       </c>
       <c r="E41">
-        <v>510</v>
+        <v>55</v>
       </c>
       <c r="F41">
-        <v>171228</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42">
-        <v>470000</v>
+        <v>370000</v>
       </c>
       <c r="C42">
-        <v>470000</v>
+        <v>370000</v>
       </c>
       <c r="D42">
-        <v>0.97950012721051105</v>
+        <v>1.25504863089823</v>
       </c>
       <c r="E42">
-        <v>838</v>
+        <v>808</v>
       </c>
       <c r="F42">
-        <v>259059</v>
+        <v>484555</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43">
-        <v>480000</v>
+        <v>450000</v>
       </c>
       <c r="C43">
-        <v>480000</v>
+        <v>450000</v>
       </c>
       <c r="D43">
-        <v>1.2497756201091099</v>
+        <v>5.6555752453677499</v>
       </c>
       <c r="E43">
-        <v>1061</v>
+        <v>510</v>
       </c>
       <c r="F43">
-        <v>430020</v>
+        <v>171228</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44">
-        <v>500000</v>
+        <v>470000</v>
       </c>
       <c r="C44">
-        <v>500000</v>
+        <v>470000</v>
       </c>
       <c r="D44">
-        <v>1.21362691417949</v>
+        <v>0.97950012721051105</v>
       </c>
       <c r="E44">
-        <v>1472</v>
+        <v>838</v>
       </c>
       <c r="F44">
-        <v>47044</v>
+        <v>259059</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45">
-        <v>610000</v>
+        <v>480000</v>
       </c>
       <c r="C45">
-        <v>610000</v>
+        <v>480000</v>
       </c>
       <c r="D45">
-        <v>0.49974137317173001</v>
+        <v>1.2497756201091099</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1061</v>
       </c>
       <c r="F45">
-        <v>97072</v>
+        <v>430020</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46">
-        <v>620000</v>
+        <v>500000</v>
       </c>
       <c r="C46">
-        <v>620000</v>
+        <v>500000</v>
       </c>
       <c r="D46">
-        <v>0.96848391936368305</v>
+        <v>1.21362691417949</v>
       </c>
       <c r="E46">
-        <v>634</v>
+        <v>1472</v>
       </c>
       <c r="F46">
-        <v>67497</v>
+        <v>47044</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47">
-        <v>650000</v>
+        <v>610000</v>
       </c>
       <c r="C47">
-        <v>650000</v>
+        <v>610000</v>
       </c>
       <c r="D47">
-        <v>1.4198035162829701</v>
+        <v>0.49974137317173001</v>
       </c>
       <c r="E47">
-        <v>608</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>133409</v>
+        <v>97072</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48">
-        <v>660000</v>
+        <v>620000</v>
       </c>
       <c r="C48">
-        <v>660000</v>
+        <v>620000</v>
       </c>
       <c r="D48">
-        <v>1.2757017079892301</v>
+        <v>0.96848391936368305</v>
       </c>
       <c r="E48">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F48">
-        <v>108305</v>
+        <v>67497</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49">
-        <v>670000</v>
+        <v>650000</v>
       </c>
       <c r="C49">
-        <v>670000</v>
+        <v>650000</v>
       </c>
       <c r="D49">
-        <v>1.1722951010790199</v>
+        <v>1.4198035162829701</v>
       </c>
       <c r="E49">
-        <v>516</v>
+        <v>608</v>
       </c>
       <c r="F49">
-        <v>107648</v>
+        <v>133409</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50">
-        <v>740000</v>
+        <v>660000</v>
       </c>
       <c r="C50">
-        <v>740000</v>
+        <v>660000</v>
       </c>
       <c r="D50">
-        <v>1.27103115850701</v>
+        <v>1.2757017079892301</v>
       </c>
       <c r="E50">
-        <v>91</v>
+        <v>645</v>
       </c>
       <c r="F50">
-        <v>1019</v>
+        <v>108305</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51">
-        <v>750000</v>
+        <v>670000</v>
       </c>
       <c r="C51">
-        <v>750000</v>
+        <v>670000</v>
       </c>
       <c r="D51">
-        <v>1.2876179517933499</v>
+        <v>1.1722951010790199</v>
       </c>
       <c r="E51">
-        <v>2562</v>
+        <v>516</v>
       </c>
       <c r="F51">
-        <v>490039</v>
+        <v>107648</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52">
-        <v>770000</v>
+        <v>740000</v>
       </c>
       <c r="C52">
-        <v>770000</v>
+        <v>740000</v>
       </c>
       <c r="D52">
-        <v>1.02826048883334</v>
+        <v>1.27103115850701</v>
       </c>
       <c r="E52">
-        <v>1054</v>
+        <v>91</v>
       </c>
       <c r="F52">
-        <v>266897</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53">
-        <v>780000</v>
+        <v>750000</v>
       </c>
       <c r="C53">
-        <v>780000</v>
+        <v>750000</v>
       </c>
       <c r="D53">
-        <v>1.69228360431312</v>
+        <v>1.2876179517933499</v>
       </c>
       <c r="E53">
-        <v>558</v>
+        <v>2562</v>
       </c>
       <c r="F53">
-        <v>333850</v>
+        <v>490039</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54">
+        <v>770000</v>
+      </c>
+      <c r="C54">
+        <v>770000</v>
+      </c>
+      <c r="D54">
+        <v>1.02826048883334</v>
+      </c>
+      <c r="E54">
+        <v>1054</v>
+      </c>
+      <c r="F54">
+        <v>266897</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <v>780000</v>
+      </c>
+      <c r="C55">
+        <v>780000</v>
+      </c>
+      <c r="D55">
+        <v>1.69228360431312</v>
+      </c>
+      <c r="E55">
+        <v>558</v>
+      </c>
+      <c r="F55">
+        <v>333850</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56">
         <v>790000</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>790000</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>1.05949347982833</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>191</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>2191</v>
       </c>
     </row>
@@ -6252,7 +6282,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6784,6 +6814,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="3"/>
+      <c r="D18">
+        <f>SUM(D3:D17)</f>
+        <v>571</v>
+      </c>
       <c r="E18">
         <f>SUM(E3:E17)</f>
         <v>58532683</v>

--- a/coling2016/props/Dataset-stats-COLING-2016.xlsx
+++ b/coling2016/props/Dataset-stats-COLING-2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="27700" windowHeight="15840" tabRatio="630"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="27700" windowHeight="15840" tabRatio="630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SliceDatasetStats" sheetId="15" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="115">
   <si>
     <t>Baby Products</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>Business Unit 2</t>
+  </si>
+  <si>
+    <t>ln=9.26966925683351</t>
+  </si>
+  <si>
+    <t>ln=6.017081357148303</t>
+  </si>
+  <si>
+    <t>ln=11.53770663030109</t>
   </si>
 </sst>
 </file>
@@ -424,7 +433,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="574">
+  <cellStyleXfs count="576">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -521,6 +530,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1007,7 +1018,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="574">
+  <cellStyles count="576">
     <cellStyle name="Comma 2" xfId="95"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1295,6 +1306,7 @@
     <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1581,6 +1593,7 @@
     <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1804,11 +1817,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1991644712"/>
-        <c:axId val="-2076158088"/>
+        <c:axId val="-2125541912"/>
+        <c:axId val="-2052041640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1991644712"/>
+        <c:axId val="-2125541912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076158088"/>
+        <c:crossAx val="-2052041640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1845,7 +1858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076158088"/>
+        <c:axId val="-2052041640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -1867,7 +1880,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1991644712"/>
+        <c:crossAx val="-2125541912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2080,11 +2093,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2077363704"/>
-        <c:axId val="-1992230040"/>
+        <c:axId val="-2051613128"/>
+        <c:axId val="-2051610008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2077363704"/>
+        <c:axId val="-2051613128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +2126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1992230040"/>
+        <c:crossAx val="-2051610008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2121,7 +2134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1992230040"/>
+        <c:axId val="-2051610008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260.0"/>
@@ -2144,7 +2157,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077363704"/>
+        <c:crossAx val="-2051613128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50.0"/>
@@ -2411,11 +2424,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2076069208"/>
-        <c:axId val="-2050436648"/>
+        <c:axId val="-2125545704"/>
+        <c:axId val="-2125853864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076069208"/>
+        <c:axId val="-2125545704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050436648"/>
+        <c:crossAx val="-2125853864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2452,7 +2465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2050436648"/>
+        <c:axId val="-2125853864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +2486,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076069208"/>
+        <c:crossAx val="-2125545704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2732,11 +2745,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2075671928"/>
-        <c:axId val="-2011836904"/>
+        <c:axId val="-2051704232"/>
+        <c:axId val="-2051748312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075671928"/>
+        <c:axId val="-2051704232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,7 +2778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011836904"/>
+        <c:crossAx val="-2051748312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2773,7 +2786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2011836904"/>
+        <c:axId val="-2051748312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2600.0"/>
@@ -2796,7 +2809,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075671928"/>
+        <c:crossAx val="-2051704232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3002,11 +3015,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2080086872"/>
-        <c:axId val="-2055169128"/>
+        <c:axId val="-2051944696"/>
+        <c:axId val="-2051670136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2080086872"/>
+        <c:axId val="-2051944696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,7 +3048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055169128"/>
+        <c:crossAx val="-2051670136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3043,7 +3056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2055169128"/>
+        <c:axId val="-2051670136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -3065,7 +3078,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080086872"/>
+        <c:crossAx val="-2051944696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3272,11 +3285,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2051676584"/>
-        <c:axId val="-2125501656"/>
+        <c:axId val="-2079435272"/>
+        <c:axId val="-2051554296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2051676584"/>
+        <c:axId val="-2079435272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,7 +3318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125501656"/>
+        <c:crossAx val="-2051554296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3313,7 +3326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125501656"/>
+        <c:axId val="-2051554296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260.0"/>
@@ -3336,7 +3349,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2051676584"/>
+        <c:crossAx val="-2079435272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3884,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4453,6 +4466,9 @@
         <f>PEARSON(D3:D18,E3:E18)</f>
         <v>0.64286470540130303</v>
       </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
       <c r="O19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4473,6 +4489,10 @@
       <c r="E20">
         <f>SUM(E3:E18)</f>
         <v>12160483</v>
+      </c>
+      <c r="F20">
+        <f>LOG($E$20/$D$20)</f>
+        <v>4.0257662073110119</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -4869,7 +4889,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5781,6 +5801,9 @@
         <f>PEARSON(E2:E26,F2:F26)</f>
         <v>0.26906993846390143</v>
       </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
       <c r="P27">
         <v>790000</v>
       </c>
@@ -5810,8 +5833,8 @@
         <v>7463975</v>
       </c>
       <c r="G28">
-        <f>AVERAGE(F2:F26)</f>
-        <v>298559</v>
+        <f>LOG10($F$28/$E$28)</f>
+        <v>2.6131852305724372</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>31</v>
@@ -6281,8 +6304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6793,6 +6816,9 @@
       <c r="E17">
         <v>2672169</v>
       </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
       <c r="M17">
         <v>260000</v>
       </c>
@@ -6821,6 +6847,10 @@
       <c r="E18">
         <f>SUM(E3:E17)</f>
         <v>58532683</v>
+      </c>
+      <c r="F18">
+        <f>LOG10($E$18/$D$18)</f>
+        <v>5.0107623233583247</v>
       </c>
       <c r="N18" t="s">
         <v>31</v>
